--- a/media/import/Import_Example.xlsx
+++ b/media/import/Import_Example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Toinvite_Backend\media\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F745A3F-E995-4F0C-81FD-5921068D1F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1646293-8D55-46D5-8264-AA205B1E11A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ФИО</t>
   </si>
   <si>
     <t>Номер Телефона</t>
+  </si>
+  <si>
+    <t>Статус</t>
   </si>
 </sst>
 </file>
@@ -42,8 +45,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -66,6 +71,36 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -81,9 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -391,7 +432,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,16 +441,19 @@
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/media/import/Import_Example.xlsx
+++ b/media/import/Import_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Toinvite_Backend\media\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1646293-8D55-46D5-8264-AA205B1E11A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF49EFC-8B5F-40B4-AFD2-2A7FB8426648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
